--- a/Merge.xlsx
+++ b/Merge.xlsx
@@ -49,304 +49,304 @@
     <t>АО "Компания ТрансТелеКом"</t>
   </si>
   <si>
+    <t>Саратов</t>
+  </si>
+  <si>
+    <t>ON_DETAIL_1912MS004194.pdf</t>
+  </si>
+  <si>
+    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=90508fb6-53ca-440b-8b4d-2e433e951f70&amp;documentId=128941bd-07d9-40e9-849b-a906b69ee783</t>
+  </si>
+  <si>
+    <t>ON_SCHET_1912MS004194.pdf</t>
+  </si>
+  <si>
+    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=90508fb6-53ca-440b-8b4d-2e433e951f70&amp;documentId=1e341f31-0a64-44bd-8020-327683f87a28</t>
+  </si>
+  <si>
+    <t>ООО "РН-КАРТ"</t>
+  </si>
+  <si>
+    <t>Счет-фактура №АВ1-36561/101 от 15.01.20</t>
+  </si>
+  <si>
+    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=bf6debc6-255c-4ebf-8138-2014f73fcfc4&amp;documentId=c63c85fb-2035-4738-8473-d407b3f22fcd</t>
+  </si>
+  <si>
+    <t>САХО</t>
+  </si>
+  <si>
+    <t>Счет-фактура №0001008/01005840 от 20.01.20</t>
+  </si>
+  <si>
+    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=bea8fc08-0dce-4467-987d-988f7b23c3ce&amp;documentId=0853297e-5f77-456d-8d84-41ac6c19c391</t>
+  </si>
+  <si>
+    <t>Счет-фактура №0001008/01005100 от 20.01.20</t>
+  </si>
+  <si>
+    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=32ff0eed-c012-4614-b0da-5efac28e73d5&amp;documentId=4ff00f29-7f98-4bf3-998f-13c42b7a0901</t>
+  </si>
+  <si>
+    <t>Счет-фактура №0001008/01004403 от 17.01.20</t>
+  </si>
+  <si>
+    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=4f593600-fc8b-44d6-b79c-2e437ff209d6&amp;documentId=fc18b956-3567-4ef2-98af-5b113fafebfe</t>
+  </si>
+  <si>
+    <t>Счет-фактура №0001008/01005837 от 20.01.20</t>
+  </si>
+  <si>
+    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=e7402a25-d08f-46e0-9cd3-d8a8ecf39752&amp;documentId=ff72bad3-7c28-4018-958a-c79acf3e78ca</t>
+  </si>
+  <si>
+    <t>Счет-фактура №0001008/01005835 от 20.01.20</t>
+  </si>
+  <si>
+    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=3414265b-96d1-48e7-8a01-d0890691a45e&amp;documentId=744469a0-4a2e-4f32-8eb9-7dfec1f52696</t>
+  </si>
+  <si>
+    <t>Счет-фактура №0001008/01005832 от 20.01.20</t>
+  </si>
+  <si>
+    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=2c4591c1-ddad-4cba-ba04-c4adea634aaa&amp;documentId=a2849e49-de4e-4a7d-834d-8c76df38503e</t>
+  </si>
+  <si>
+    <t>Счет-фактура №0001008/01005176 от 20.01.20</t>
+  </si>
+  <si>
+    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=b8c340c6-85b8-4c24-bff5-0a7f0d1e44fc&amp;documentId=a41ea47c-767e-4012-a9e7-b887b7e6c5cc</t>
+  </si>
+  <si>
+    <t>Счет-фактура №0001008/01005155 от 20.01.20</t>
+  </si>
+  <si>
+    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=0f082733-5feb-4294-b33a-a8c9f8a48b9a&amp;documentId=0ee527a8-1cf3-43d2-8788-5ce10650cc52</t>
+  </si>
+  <si>
+    <t>Счет-фактура №0001008/01005163 от 20.01.20</t>
+  </si>
+  <si>
+    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=8e78300f-6e2d-4a0b-acab-001d23b09242&amp;documentId=ac2e8e88-cc0b-4bb6-935f-6335f33eeffe</t>
+  </si>
+  <si>
+    <t>Счет-фактура №0001008/01005073 от 20.01.20</t>
+  </si>
+  <si>
+    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=5fdac1fd-56fc-43f8-bc4c-293921d515f7&amp;documentId=1c1ec12e-50e3-47e8-90cc-e9ccbeb7f0e6</t>
+  </si>
+  <si>
+    <t>Счет-фактура №0001008/01005144 от 20.01.20</t>
+  </si>
+  <si>
+    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=5668b12a-67ec-41fb-a35e-e31d3274acdb&amp;documentId=3bc74d30-66fd-46ee-a186-e857d392da69</t>
+  </si>
+  <si>
+    <t>Счет-фактура №0001008/01005085 от 20.01.20</t>
+  </si>
+  <si>
+    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=81b3a777-4620-42cc-ae0d-d99514988df6&amp;documentId=302df6b2-1b13-41aa-b281-2c1baa18b010</t>
+  </si>
+  <si>
+    <t>Счет-фактура №0001008/01005121 от 20.01.20</t>
+  </si>
+  <si>
+    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=14653a6b-1f59-4f34-a24f-d655702e0a0b&amp;documentId=7b8f9531-dcfa-4b90-a7d2-0796bac5b39b</t>
+  </si>
+  <si>
+    <t>Счет-фактура №0001008/01005135 от 20.01.20</t>
+  </si>
+  <si>
+    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=b51205ea-f817-4d1f-88d0-b5063afa37f8&amp;documentId=d4219f72-b4cc-4507-8edd-8ec7709984e9</t>
+  </si>
+  <si>
+    <t>Счет-фактура №0001008/01004315 от 16.01.20</t>
+  </si>
+  <si>
+    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=129dafdb-5a49-4f89-be8a-f97005dcb206&amp;documentId=e6cc157d-17a5-4681-b7d5-8927b81cfc46</t>
+  </si>
+  <si>
+    <t>Счет-фактура №0001008/01004487 от 20.01.20</t>
+  </si>
+  <si>
+    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=c633b2da-56dd-4225-85da-dbbe38201d51&amp;documentId=cf97b4ff-732e-4428-bcdf-d5a4540a5a8e</t>
+  </si>
+  <si>
+    <t>УПД №7702/000174241 от 31.12.19</t>
+  </si>
+  <si>
+    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=2da3623b-e2fc-476a-b732-9827bb0365fc&amp;documentId=5e0d0dd5-c437-4f2e-a4f1-67f0039ee9b4</t>
+  </si>
+  <si>
+    <t>Package.PDF</t>
+  </si>
+  <si>
+    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=770fb6b0-5e10-4d5e-b6a7-9b75eeffc2ff&amp;documentId=1a7a77d6-b1a8-4cf5-a1de-04d2e4741dee</t>
+  </si>
+  <si>
+    <t>УПД №1912MS004194 от 31.12.19</t>
+  </si>
+  <si>
+    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=90508fb6-53ca-440b-8b4d-2e433e951f70&amp;documentId=84064fcc-9f35-41f1-8fe9-176f99a04b5a</t>
+  </si>
+  <si>
+    <t>ON_DETAIL_7702-1912WG132004.pdf</t>
+  </si>
+  <si>
+    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=8358d9f7-28d4-4da7-a598-74df00296912&amp;documentId=7bd00ab6-083e-40d0-841e-d6c92aa037eb</t>
+  </si>
+  <si>
+    <t>ON_SCHET_7702-1912WG132004.pdf</t>
+  </si>
+  <si>
+    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=8358d9f7-28d4-4da7-a598-74df00296912&amp;documentId=847d297c-2dd9-459e-b93e-7242b17249b5</t>
+  </si>
+  <si>
+    <t>ON_SCHET_5201-1912RP360094.pdf</t>
+  </si>
+  <si>
+    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=66803218-e94a-4d1a-a250-5b556b5caa3e&amp;documentId=ea7d0177-861a-4d90-8abd-bafe16c79f3e</t>
+  </si>
+  <si>
+    <t>ON_DETAIL_5201-1912RP360094.pdf</t>
+  </si>
+  <si>
+    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=66803218-e94a-4d1a-a250-5b556b5caa3e&amp;documentId=7595058e-8295-41f0-870c-ee00afc7e42e</t>
+  </si>
+  <si>
+    <t>УПД №7702/1912WG132004 от 31.12.19</t>
+  </si>
+  <si>
+    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=8358d9f7-28d4-4da7-a598-74df00296912&amp;documentId=a522a0a6-7f31-4b18-9b7c-d53eb84d4c8b</t>
+  </si>
+  <si>
+    <t>УПД №5201/1912RP360094 от 31.12.19</t>
+  </si>
+  <si>
+    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=66803218-e94a-4d1a-a250-5b556b5caa3e&amp;documentId=31570a85-6b9c-43d1-ac8a-142797400e1b</t>
+  </si>
+  <si>
+    <t>ООО "СТМ"</t>
+  </si>
+  <si>
+    <t>Акт Русагротранс (февраль).pdf</t>
+  </si>
+  <si>
+    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=e9755d2e-d9b1-4e4a-8436-ef5c2e9aa988&amp;documentId=00046fb6-d446-4802-b496-4eeb86fb5a9b</t>
+  </si>
+  <si>
+    <t>Счет Русагротранс (январь).pdf</t>
+  </si>
+  <si>
+    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=e9755d2e-d9b1-4e4a-8436-ef5c2e9aa988&amp;documentId=0f99e454-d728-4196-be44-9eddb56f6ae5</t>
+  </si>
+  <si>
+    <t>Счет Русагротранс (февраль).pdf</t>
+  </si>
+  <si>
+    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=e9755d2e-d9b1-4e4a-8436-ef5c2e9aa988&amp;documentId=85d79443-39de-446e-99e7-b3e8c3a8c388</t>
+  </si>
+  <si>
+    <t>Счет №2093129026 от 20.01.20</t>
+  </si>
+  <si>
+    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=9698d456-12e3-49f8-802c-bc777c145890&amp;documentId=0cec3932-3af0-4616-9825-af672547c518</t>
+  </si>
+  <si>
+    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=ea27f0a2-f501-4da9-8bc6-5d3b080ddd22&amp;documentId=22ea6bc2-3b9e-4213-bd34-56048da014ab</t>
+  </si>
+  <si>
+    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=ea27f0a2-f501-4da9-8bc6-5d3b080ddd22&amp;documentId=edf93e4b-0fe9-4c87-8336-64f832f87394</t>
+  </si>
+  <si>
+    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=ea27f0a2-f501-4da9-8bc6-5d3b080ddd22&amp;documentId=707fcd13-bfad-4d75-922e-a2ecede6ba39</t>
+  </si>
+  <si>
+    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=f29793ef-bcf0-4bb1-b1e5-d29c811d888f&amp;documentId=15146196-ef3b-4b20-a0e4-62d1caa0663d</t>
+  </si>
+  <si>
+    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=f29793ef-bcf0-4bb1-b1e5-d29c811d888f&amp;documentId=a2140074-7c48-4613-aceb-9f836b3b289e</t>
+  </si>
+  <si>
+    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=f29793ef-bcf0-4bb1-b1e5-d29c811d888f&amp;documentId=cf9a6536-384c-4d76-8dae-c266995ee7e9</t>
+  </si>
+  <si>
+    <t>Макрорегиональный филиал "Волга" ПАО "Ростелеком"</t>
+  </si>
+  <si>
+    <t>Приглашение к ЭДО</t>
+  </si>
+  <si>
+    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=de0b7daf-d3c9-459a-b0d1-30ea80e101f1&amp;documentId=78943379-5aae-4d8b-ab8b-42b0619c5fdf</t>
+  </si>
+  <si>
+    <t>Счет-фактура №0001008/01004097 от 15.01.20</t>
+  </si>
+  <si>
+    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=e0fdd6cd-ba29-41ed-bde1-00b10a60435e&amp;documentId=3a252637-8884-490d-8189-28b406b15bbe</t>
+  </si>
+  <si>
+    <t>Счет-фактура №0001008/01004100 от 15.01.20</t>
+  </si>
+  <si>
+    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=1254d05f-d0db-4662-8881-c5df7f52b353&amp;documentId=80a86593-bfa3-4656-a765-b3d1e76b71a1</t>
+  </si>
+  <si>
+    <t>Счет-фактура №0001008/01004094 от 15.01.20</t>
+  </si>
+  <si>
+    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=bf985d8d-0019-4cd2-b4ad-c9133196b640&amp;documentId=621fc06d-049f-466f-b561-afa10d53bad9</t>
+  </si>
+  <si>
+    <t>Счет-фактура №0001008/01004107 от 15.01.20</t>
+  </si>
+  <si>
+    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=82dee492-dda3-4204-8499-e720eaf4bc45&amp;documentId=42d5cc70-a30f-4231-a1b3-868138688ee6</t>
+  </si>
+  <si>
+    <t>Счет-фактура №0001008/01003425 от 15.01.20</t>
+  </si>
+  <si>
+    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=d6b9c1ee-f895-40af-91aa-495f1cffc0a5&amp;documentId=84234a19-0b75-42f7-a964-8cb2e2c24dc7</t>
+  </si>
+  <si>
+    <t>Счет-фактура №0001008/01003438 от 15.01.20</t>
+  </si>
+  <si>
+    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=26934b06-f18b-4000-ab27-b2e6f05cab8c&amp;documentId=ddb54622-32d5-4de2-8d2c-37e230e080e8</t>
+  </si>
+  <si>
+    <t>Счет-фактура №0001008/01004113 от 15.01.20</t>
+  </si>
+  <si>
+    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=314b2117-31a8-4cec-bd05-8f9e01e6b40c&amp;documentId=defa8496-8193-41c2-915a-70164c66ed37</t>
+  </si>
+  <si>
+    <t>363000038606_Соглашение об ЭДО Ростелеком МРФ Волга.pdf</t>
+  </si>
+  <si>
+    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=3ddb1d79-671e-4374-9043-36aaed9b3297&amp;documentId=ea3d1cf2-9760-4d33-974c-065648ff7fe7</t>
+  </si>
+  <si>
+    <t>АО "ПФ "СКБ Контур"</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
     <t>ON_SCHET_7702-000174241.pdf</t>
   </si>
   <si>
     <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=2da3623b-e2fc-476a-b732-9827bb0365fc&amp;documentId=aa66e86a-a519-4976-bebf-713ae519fb18</t>
-  </si>
-  <si>
-    <t>Саратов</t>
-  </si>
-  <si>
-    <t>ON_DETAIL_1912MS004194.pdf</t>
-  </si>
-  <si>
-    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=90508fb6-53ca-440b-8b4d-2e433e951f70&amp;documentId=128941bd-07d9-40e9-849b-a906b69ee783</t>
-  </si>
-  <si>
-    <t>ON_SCHET_1912MS004194.pdf</t>
-  </si>
-  <si>
-    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=90508fb6-53ca-440b-8b4d-2e433e951f70&amp;documentId=1e341f31-0a64-44bd-8020-327683f87a28</t>
-  </si>
-  <si>
-    <t>ООО "РН-КАРТ"</t>
-  </si>
-  <si>
-    <t>Счет-фактура №АВ1-36561/101 от 15.01.20</t>
-  </si>
-  <si>
-    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=bf6debc6-255c-4ebf-8138-2014f73fcfc4&amp;documentId=c63c85fb-2035-4738-8473-d407b3f22fcd</t>
-  </si>
-  <si>
-    <t>САХО</t>
-  </si>
-  <si>
-    <t>Счет-фактура №0001008/01005840 от 20.01.20</t>
-  </si>
-  <si>
-    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=bea8fc08-0dce-4467-987d-988f7b23c3ce&amp;documentId=0853297e-5f77-456d-8d84-41ac6c19c391</t>
-  </si>
-  <si>
-    <t>Счет-фактура №0001008/01005100 от 20.01.20</t>
-  </si>
-  <si>
-    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=32ff0eed-c012-4614-b0da-5efac28e73d5&amp;documentId=4ff00f29-7f98-4bf3-998f-13c42b7a0901</t>
-  </si>
-  <si>
-    <t>Счет-фактура №0001008/01004403 от 17.01.20</t>
-  </si>
-  <si>
-    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=4f593600-fc8b-44d6-b79c-2e437ff209d6&amp;documentId=fc18b956-3567-4ef2-98af-5b113fafebfe</t>
-  </si>
-  <si>
-    <t>Счет-фактура №0001008/01005837 от 20.01.20</t>
-  </si>
-  <si>
-    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=e7402a25-d08f-46e0-9cd3-d8a8ecf39752&amp;documentId=ff72bad3-7c28-4018-958a-c79acf3e78ca</t>
-  </si>
-  <si>
-    <t>Счет-фактура №0001008/01005835 от 20.01.20</t>
-  </si>
-  <si>
-    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=3414265b-96d1-48e7-8a01-d0890691a45e&amp;documentId=744469a0-4a2e-4f32-8eb9-7dfec1f52696</t>
-  </si>
-  <si>
-    <t>Счет-фактура №0001008/01005832 от 20.01.20</t>
-  </si>
-  <si>
-    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=2c4591c1-ddad-4cba-ba04-c4adea634aaa&amp;documentId=a2849e49-de4e-4a7d-834d-8c76df38503e</t>
-  </si>
-  <si>
-    <t>Счет-фактура №0001008/01005176 от 20.01.20</t>
-  </si>
-  <si>
-    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=b8c340c6-85b8-4c24-bff5-0a7f0d1e44fc&amp;documentId=a41ea47c-767e-4012-a9e7-b887b7e6c5cc</t>
-  </si>
-  <si>
-    <t>Счет-фактура №0001008/01005155 от 20.01.20</t>
-  </si>
-  <si>
-    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=0f082733-5feb-4294-b33a-a8c9f8a48b9a&amp;documentId=0ee527a8-1cf3-43d2-8788-5ce10650cc52</t>
-  </si>
-  <si>
-    <t>Счет-фактура №0001008/01005163 от 20.01.20</t>
-  </si>
-  <si>
-    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=8e78300f-6e2d-4a0b-acab-001d23b09242&amp;documentId=ac2e8e88-cc0b-4bb6-935f-6335f33eeffe</t>
-  </si>
-  <si>
-    <t>Счет-фактура №0001008/01005073 от 20.01.20</t>
-  </si>
-  <si>
-    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=5fdac1fd-56fc-43f8-bc4c-293921d515f7&amp;documentId=1c1ec12e-50e3-47e8-90cc-e9ccbeb7f0e6</t>
-  </si>
-  <si>
-    <t>Счет-фактура №0001008/01005144 от 20.01.20</t>
-  </si>
-  <si>
-    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=5668b12a-67ec-41fb-a35e-e31d3274acdb&amp;documentId=3bc74d30-66fd-46ee-a186-e857d392da69</t>
-  </si>
-  <si>
-    <t>Счет-фактура №0001008/01005085 от 20.01.20</t>
-  </si>
-  <si>
-    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=81b3a777-4620-42cc-ae0d-d99514988df6&amp;documentId=302df6b2-1b13-41aa-b281-2c1baa18b010</t>
-  </si>
-  <si>
-    <t>Счет-фактура №0001008/01005121 от 20.01.20</t>
-  </si>
-  <si>
-    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=14653a6b-1f59-4f34-a24f-d655702e0a0b&amp;documentId=7b8f9531-dcfa-4b90-a7d2-0796bac5b39b</t>
-  </si>
-  <si>
-    <t>Счет-фактура №0001008/01005135 от 20.01.20</t>
-  </si>
-  <si>
-    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=b51205ea-f817-4d1f-88d0-b5063afa37f8&amp;documentId=d4219f72-b4cc-4507-8edd-8ec7709984e9</t>
-  </si>
-  <si>
-    <t>Счет-фактура №0001008/01004315 от 16.01.20</t>
-  </si>
-  <si>
-    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=129dafdb-5a49-4f89-be8a-f97005dcb206&amp;documentId=e6cc157d-17a5-4681-b7d5-8927b81cfc46</t>
-  </si>
-  <si>
-    <t>Счет-фактура №0001008/01004487 от 20.01.20</t>
-  </si>
-  <si>
-    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=c633b2da-56dd-4225-85da-dbbe38201d51&amp;documentId=cf97b4ff-732e-4428-bcdf-d5a4540a5a8e</t>
-  </si>
-  <si>
-    <t>УПД №7702/000174241 от 31.12.19</t>
-  </si>
-  <si>
-    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=2da3623b-e2fc-476a-b732-9827bb0365fc&amp;documentId=5e0d0dd5-c437-4f2e-a4f1-67f0039ee9b4</t>
-  </si>
-  <si>
-    <t>Package.PDF</t>
-  </si>
-  <si>
-    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=770fb6b0-5e10-4d5e-b6a7-9b75eeffc2ff&amp;documentId=1a7a77d6-b1a8-4cf5-a1de-04d2e4741dee</t>
-  </si>
-  <si>
-    <t>УПД №1912MS004194 от 31.12.19</t>
-  </si>
-  <si>
-    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=90508fb6-53ca-440b-8b4d-2e433e951f70&amp;documentId=84064fcc-9f35-41f1-8fe9-176f99a04b5a</t>
-  </si>
-  <si>
-    <t>ON_DETAIL_7702-1912WG132004.pdf</t>
-  </si>
-  <si>
-    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=8358d9f7-28d4-4da7-a598-74df00296912&amp;documentId=7bd00ab6-083e-40d0-841e-d6c92aa037eb</t>
-  </si>
-  <si>
-    <t>ON_SCHET_7702-1912WG132004.pdf</t>
-  </si>
-  <si>
-    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=8358d9f7-28d4-4da7-a598-74df00296912&amp;documentId=847d297c-2dd9-459e-b93e-7242b17249b5</t>
-  </si>
-  <si>
-    <t>ON_SCHET_5201-1912RP360094.pdf</t>
-  </si>
-  <si>
-    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=66803218-e94a-4d1a-a250-5b556b5caa3e&amp;documentId=ea7d0177-861a-4d90-8abd-bafe16c79f3e</t>
-  </si>
-  <si>
-    <t>ON_DETAIL_5201-1912RP360094.pdf</t>
-  </si>
-  <si>
-    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=66803218-e94a-4d1a-a250-5b556b5caa3e&amp;documentId=7595058e-8295-41f0-870c-ee00afc7e42e</t>
-  </si>
-  <si>
-    <t>УПД №7702/1912WG132004 от 31.12.19</t>
-  </si>
-  <si>
-    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=8358d9f7-28d4-4da7-a598-74df00296912&amp;documentId=a522a0a6-7f31-4b18-9b7c-d53eb84d4c8b</t>
-  </si>
-  <si>
-    <t>УПД №5201/1912RP360094 от 31.12.19</t>
-  </si>
-  <si>
-    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=66803218-e94a-4d1a-a250-5b556b5caa3e&amp;documentId=31570a85-6b9c-43d1-ac8a-142797400e1b</t>
-  </si>
-  <si>
-    <t>ООО "СТМ"</t>
-  </si>
-  <si>
-    <t>Акт Русагротранс (февраль).pdf</t>
-  </si>
-  <si>
-    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=e9755d2e-d9b1-4e4a-8436-ef5c2e9aa988&amp;documentId=00046fb6-d446-4802-b496-4eeb86fb5a9b</t>
-  </si>
-  <si>
-    <t>Счет Русагротранс (январь).pdf</t>
-  </si>
-  <si>
-    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=e9755d2e-d9b1-4e4a-8436-ef5c2e9aa988&amp;documentId=0f99e454-d728-4196-be44-9eddb56f6ae5</t>
-  </si>
-  <si>
-    <t>Счет Русагротранс (февраль).pdf</t>
-  </si>
-  <si>
-    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=e9755d2e-d9b1-4e4a-8436-ef5c2e9aa988&amp;documentId=85d79443-39de-446e-99e7-b3e8c3a8c388</t>
-  </si>
-  <si>
-    <t>Счет №2093129026 от 20.01.20</t>
-  </si>
-  <si>
-    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=9698d456-12e3-49f8-802c-bc777c145890&amp;documentId=0cec3932-3af0-4616-9825-af672547c518</t>
-  </si>
-  <si>
-    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=ea27f0a2-f501-4da9-8bc6-5d3b080ddd22&amp;documentId=22ea6bc2-3b9e-4213-bd34-56048da014ab</t>
-  </si>
-  <si>
-    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=ea27f0a2-f501-4da9-8bc6-5d3b080ddd22&amp;documentId=edf93e4b-0fe9-4c87-8336-64f832f87394</t>
-  </si>
-  <si>
-    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=ea27f0a2-f501-4da9-8bc6-5d3b080ddd22&amp;documentId=707fcd13-bfad-4d75-922e-a2ecede6ba39</t>
-  </si>
-  <si>
-    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=f29793ef-bcf0-4bb1-b1e5-d29c811d888f&amp;documentId=15146196-ef3b-4b20-a0e4-62d1caa0663d</t>
-  </si>
-  <si>
-    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=f29793ef-bcf0-4bb1-b1e5-d29c811d888f&amp;documentId=a2140074-7c48-4613-aceb-9f836b3b289e</t>
-  </si>
-  <si>
-    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=f29793ef-bcf0-4bb1-b1e5-d29c811d888f&amp;documentId=cf9a6536-384c-4d76-8dae-c266995ee7e9</t>
-  </si>
-  <si>
-    <t>Макрорегиональный филиал "Волга" ПАО "Ростелеком"</t>
-  </si>
-  <si>
-    <t>Приглашение к ЭДО</t>
-  </si>
-  <si>
-    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=de0b7daf-d3c9-459a-b0d1-30ea80e101f1&amp;documentId=78943379-5aae-4d8b-ab8b-42b0619c5fdf</t>
-  </si>
-  <si>
-    <t>Счет-фактура №0001008/01004097 от 15.01.20</t>
-  </si>
-  <si>
-    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=e0fdd6cd-ba29-41ed-bde1-00b10a60435e&amp;documentId=3a252637-8884-490d-8189-28b406b15bbe</t>
-  </si>
-  <si>
-    <t>Счет-фактура №0001008/01004100 от 15.01.20</t>
-  </si>
-  <si>
-    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=1254d05f-d0db-4662-8881-c5df7f52b353&amp;documentId=80a86593-bfa3-4656-a765-b3d1e76b71a1</t>
-  </si>
-  <si>
-    <t>Счет-фактура №0001008/01004094 от 15.01.20</t>
-  </si>
-  <si>
-    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=bf985d8d-0019-4cd2-b4ad-c9133196b640&amp;documentId=621fc06d-049f-466f-b561-afa10d53bad9</t>
-  </si>
-  <si>
-    <t>Счет-фактура №0001008/01004107 от 15.01.20</t>
-  </si>
-  <si>
-    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=82dee492-dda3-4204-8499-e720eaf4bc45&amp;documentId=42d5cc70-a30f-4231-a1b3-868138688ee6</t>
-  </si>
-  <si>
-    <t>Счет-фактура №0001008/01003425 от 15.01.20</t>
-  </si>
-  <si>
-    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=d6b9c1ee-f895-40af-91aa-495f1cffc0a5&amp;documentId=84234a19-0b75-42f7-a964-8cb2e2c24dc7</t>
-  </si>
-  <si>
-    <t>Счет-фактура №0001008/01003438 от 15.01.20</t>
-  </si>
-  <si>
-    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=26934b06-f18b-4000-ab27-b2e6f05cab8c&amp;documentId=ddb54622-32d5-4de2-8d2c-37e230e080e8</t>
-  </si>
-  <si>
-    <t>Счет-фактура №0001008/01004113 от 15.01.20</t>
-  </si>
-  <si>
-    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=314b2117-31a8-4cec-bd05-8f9e01e6b40c&amp;documentId=defa8496-8193-41c2-915a-70164c66ed37</t>
-  </si>
-  <si>
-    <t>363000038606_Соглашение об ЭДО Ростелеком МРФ Волга.pdf</t>
-  </si>
-  <si>
-    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=3ddb1d79-671e-4374-9043-36aaed9b3297&amp;documentId=ea3d1cf2-9760-4d33-974c-065648ff7fe7</t>
-  </si>
-  <si>
-    <t>АО "ПФ "СКБ Контур"</t>
-  </si>
-  <si>
-    <t>Column1</t>
-  </si>
-  <si>
-    <t>Column2</t>
-  </si>
-  <si>
-    <t>Column3</t>
-  </si>
-  <si>
-    <t>Column4</t>
   </si>
 </sst>
 </file>
@@ -667,7 +667,7 @@
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,27 +679,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" t="s">
         <v>105</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>106</v>
-      </c>
-      <c r="C1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -735,13 +735,13 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" t="s">
         <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -749,10 +749,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
         <v>0</v>
@@ -763,10 +763,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
         <v>0</v>
@@ -774,16 +774,16 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -791,10 +791,10 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
         <v>2</v>
@@ -805,10 +805,10 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
         <v>2</v>
@@ -819,10 +819,10 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
         <v>2</v>
@@ -833,10 +833,10 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>2</v>
@@ -847,10 +847,10 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
         <v>2</v>
@@ -861,10 +861,10 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
         <v>2</v>
@@ -875,10 +875,10 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
         <v>2</v>
@@ -889,10 +889,10 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
         <v>2</v>
@@ -903,10 +903,10 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
         <v>2</v>
@@ -917,10 +917,10 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D18" t="s">
         <v>2</v>
@@ -931,10 +931,10 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D19" t="s">
         <v>2</v>
@@ -945,10 +945,10 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D20" t="s">
         <v>2</v>
@@ -959,10 +959,10 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D21" t="s">
         <v>2</v>
@@ -973,10 +973,10 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D22" t="s">
         <v>2</v>
@@ -987,10 +987,10 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D23" t="s">
         <v>2</v>
@@ -1001,10 +1001,10 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D24" t="s">
         <v>2</v>
@@ -1015,13 +1015,13 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1029,10 +1029,10 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D26" t="s">
         <v>2</v>
@@ -1043,10 +1043,10 @@
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D27" t="s">
         <v>0</v>
@@ -1057,13 +1057,13 @@
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1071,13 +1071,13 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D29" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1085,13 +1085,13 @@
         <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D30" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1099,13 +1099,13 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1113,13 +1113,13 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D32" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1127,24 +1127,24 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D33" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" t="s">
         <v>70</v>
-      </c>
-      <c r="B34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" t="s">
-        <v>72</v>
       </c>
       <c r="D34" t="s">
         <v>0</v>
@@ -1152,13 +1152,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D35" t="s">
         <v>0</v>
@@ -1166,13 +1166,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D36" t="s">
         <v>0</v>
@@ -1180,13 +1180,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C37" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D37" t="s">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C38" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D38" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1211,13 +1211,13 @@
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C39" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D39" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1225,13 +1225,13 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C40" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D40" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1239,13 +1239,13 @@
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D41" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1253,13 +1253,13 @@
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C42" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D42" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1267,24 +1267,24 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C43" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D43" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" t="s">
         <v>85</v>
-      </c>
-      <c r="B44" t="s">
-        <v>86</v>
-      </c>
-      <c r="C44" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1292,10 +1292,10 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D45" t="s">
         <v>2</v>
@@ -1306,10 +1306,10 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C46" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D46" t="s">
         <v>2</v>
@@ -1320,10 +1320,10 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D47" t="s">
         <v>2</v>
@@ -1334,10 +1334,10 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C48" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D48" t="s">
         <v>2</v>
@@ -1348,10 +1348,10 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C49" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D49" t="s">
         <v>2</v>
@@ -1362,10 +1362,10 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C50" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D50" t="s">
         <v>2</v>
@@ -1376,10 +1376,10 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C51" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D51" t="s">
         <v>2</v>

--- a/Merge.xlsx
+++ b/Merge.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="109">
   <si>
     <t>ДИТ</t>
   </si>
@@ -316,12 +316,6 @@
     <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=26934b06-f18b-4000-ab27-b2e6f05cab8c&amp;documentId=ddb54622-32d5-4de2-8d2c-37e230e080e8</t>
   </si>
   <si>
-    <t>Счет-фактура №0001008/01004113 от 15.01.20</t>
-  </si>
-  <si>
-    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=314b2117-31a8-4cec-bd05-8f9e01e6b40c&amp;documentId=defa8496-8193-41c2-915a-70164c66ed37</t>
-  </si>
-  <si>
     <t>363000038606_Соглашение об ЭДО Ростелеком МРФ Волга.pdf</t>
   </si>
   <si>
@@ -347,6 +341,12 @@
   </si>
   <si>
     <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=2da3623b-e2fc-476a-b732-9827bb0365fc&amp;documentId=aa66e86a-a519-4976-bebf-713ae519fb18</t>
+  </si>
+  <si>
+    <t>Акт №2093129026 от 24.01.20</t>
+  </si>
+  <si>
+    <t>/ca64090f-7d09-4c1a-9fa5-300482dd64b1/Document/Show?letterId=61ee49bd-54bf-4c4e-bd0a-21c95cd737eb&amp;documentId=6ec951df-d24b-4478-8155-b0ba0f9b8eaf</t>
   </si>
 </sst>
 </file>
@@ -679,41 +679,41 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" t="s">
         <v>103</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>104</v>
-      </c>
-      <c r="C1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>108</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>0</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -721,10 +721,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
@@ -732,16 +732,16 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -749,13 +749,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="D6" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -763,41 +763,38 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -805,10 +802,10 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
         <v>2</v>
@@ -819,10 +816,10 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
         <v>2</v>
@@ -833,10 +830,10 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
         <v>2</v>
@@ -847,10 +844,10 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>2</v>
@@ -861,10 +858,10 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>2</v>
@@ -875,10 +872,10 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
         <v>2</v>
@@ -889,10 +886,10 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
         <v>2</v>
@@ -903,10 +900,10 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
         <v>2</v>
@@ -917,10 +914,10 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
         <v>2</v>
@@ -931,10 +928,10 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
         <v>2</v>
@@ -945,10 +942,10 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D20" t="s">
         <v>2</v>
@@ -959,10 +956,10 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s">
         <v>2</v>
@@ -973,10 +970,10 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D22" t="s">
         <v>2</v>
@@ -987,10 +984,10 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D23" t="s">
         <v>2</v>
@@ -1001,10 +998,10 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
         <v>2</v>
@@ -1012,44 +1009,44 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D26" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D27" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1057,13 +1054,13 @@
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1071,24 +1068,21 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D29" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>8</v>
-      </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D30" t="s">
         <v>9</v>
@@ -1099,24 +1093,21 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D31" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>8</v>
-      </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C32" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D32" t="s">
         <v>9</v>
@@ -1127,10 +1118,10 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C33" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D33" t="s">
         <v>9</v>
@@ -1138,16 +1129,16 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C34" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D34" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1155,38 +1146,32 @@
         <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C35" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D35" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>68</v>
-      </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D36" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>102</v>
-      </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C37" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D37" t="s">
         <v>0</v>
@@ -1194,16 +1179,16 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1211,38 +1196,32 @@
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>8</v>
-      </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D40" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>8</v>
-      </c>
       <c r="B41" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D41" t="s">
         <v>9</v>
@@ -1253,52 +1232,46 @@
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D42" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>8</v>
-      </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D43" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>83</v>
-      </c>
       <c r="B44" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="C44" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="D44" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="B45" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C45" t="s">
-        <v>87</v>
-      </c>
-      <c r="D45" t="s">
-        <v>2</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1306,10 +1279,10 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D46" t="s">
         <v>2</v>
@@ -1320,10 +1293,10 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C47" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D47" t="s">
         <v>2</v>
@@ -1334,10 +1307,10 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C48" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D48" t="s">
         <v>2</v>
@@ -1348,10 +1321,10 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D49" t="s">
         <v>2</v>
@@ -1362,10 +1335,10 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C50" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D50" t="s">
         <v>2</v>
@@ -1376,10 +1349,10 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C51" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D51" t="s">
         <v>2</v>
